--- a/natmiOut/OldD4/LR-pairs_lrc2p/F13a1-Itga4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/F13a1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.313531698984623</v>
+        <v>0.8675826666666667</v>
       </c>
       <c r="H2">
-        <v>0.313531698984623</v>
+        <v>2.602748</v>
       </c>
       <c r="I2">
-        <v>0.001228590106283661</v>
+        <v>0.002935658305514944</v>
       </c>
       <c r="J2">
-        <v>0.001228590106283661</v>
+        <v>0.002942610642527823</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>47.174012646515</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N2">
-        <v>47.174012646515</v>
+        <v>1.104247</v>
       </c>
       <c r="O2">
-        <v>0.4188986365712714</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P2">
-        <v>0.4188986365712714</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q2">
-        <v>14.79054833298394</v>
+        <v>0.3193418523062223</v>
       </c>
       <c r="R2">
-        <v>14.79054833298394</v>
+        <v>2.874076670756</v>
       </c>
       <c r="S2">
-        <v>0.0005146547204271791</v>
+        <v>8.084557094795492E-06</v>
       </c>
       <c r="T2">
-        <v>0.0005146547204271791</v>
+        <v>8.166520615089338E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.313531698984623</v>
+        <v>0.8675826666666667</v>
       </c>
       <c r="H3">
-        <v>0.313531698984623</v>
+        <v>2.602748</v>
       </c>
       <c r="I3">
-        <v>0.001228590106283661</v>
+        <v>0.002935658305514944</v>
       </c>
       <c r="J3">
-        <v>0.001228590106283661</v>
+        <v>0.002942610642527823</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.4380552209324</v>
+        <v>67.415553</v>
       </c>
       <c r="N3">
-        <v>62.4380552209324</v>
+        <v>202.246659</v>
       </c>
       <c r="O3">
-        <v>0.5544412004591804</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P3">
-        <v>0.5544412004591804</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q3">
-        <v>19.57630953471465</v>
+        <v>58.48856524654801</v>
       </c>
       <c r="R3">
-        <v>19.57630953471465</v>
+        <v>526.397087218932</v>
       </c>
       <c r="S3">
-        <v>0.0006811809734001852</v>
+        <v>0.001480714606349064</v>
       </c>
       <c r="T3">
-        <v>0.0006811809734001852</v>
+        <v>0.001495726508703617</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.313531698984623</v>
+        <v>0.8675826666666667</v>
       </c>
       <c r="H4">
-        <v>0.313531698984623</v>
+        <v>2.602748</v>
       </c>
       <c r="I4">
-        <v>0.001228590106283661</v>
+        <v>0.002935658305514944</v>
       </c>
       <c r="J4">
-        <v>0.001228590106283661</v>
+        <v>0.002942610642527823</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.0023178766533</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N4">
-        <v>3.0023178766533</v>
+        <v>188.369503</v>
       </c>
       <c r="O4">
-        <v>0.02666016296954829</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P4">
-        <v>0.02666016296954829</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q4">
-        <v>0.9413218247590149</v>
+        <v>54.47537191047157</v>
       </c>
       <c r="R4">
-        <v>0.9413218247590149</v>
+        <v>490.278347194244</v>
       </c>
       <c r="S4">
-        <v>3.275441245629706E-05</v>
+        <v>0.001379115362705763</v>
       </c>
       <c r="T4">
-        <v>3.275441245629706E-05</v>
+        <v>0.001393097223269461</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>71.8131499828264</v>
+        <v>0.8675826666666667</v>
       </c>
       <c r="H5">
-        <v>71.8131499828264</v>
+        <v>2.602748</v>
       </c>
       <c r="I5">
-        <v>0.2814035258817397</v>
+        <v>0.002935658305514944</v>
       </c>
       <c r="J5">
-        <v>0.2814035258817397</v>
+        <v>0.002942610642527823</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.174012646515</v>
+        <v>3.084311</v>
       </c>
       <c r="N5">
-        <v>47.174012646515</v>
+        <v>6.168622</v>
       </c>
       <c r="O5">
-        <v>0.4188986365712714</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P5">
-        <v>0.4188986365712714</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q5">
-        <v>3387.714445475931</v>
+        <v>2.675894762209333</v>
       </c>
       <c r="R5">
-        <v>3387.714445475931</v>
+        <v>16.055368573256</v>
       </c>
       <c r="S5">
-        <v>0.1178795533182093</v>
+        <v>6.774377936532075E-05</v>
       </c>
       <c r="T5">
-        <v>0.1178795533182093</v>
+        <v>4.562038993965447E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>71.8131499828264</v>
+        <v>0.4105396666666667</v>
       </c>
       <c r="H6">
-        <v>71.8131499828264</v>
+        <v>1.231619</v>
       </c>
       <c r="I6">
-        <v>0.2814035258817397</v>
+        <v>0.001389151983434435</v>
       </c>
       <c r="J6">
-        <v>0.2814035258817397</v>
+        <v>0.001392441825693258</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>62.4380552209324</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N6">
-        <v>62.4380552209324</v>
+        <v>1.104247</v>
       </c>
       <c r="O6">
-        <v>0.5544412004591804</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P6">
-        <v>0.5544412004591804</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q6">
-        <v>4483.873424216816</v>
+        <v>0.1511123984325556</v>
       </c>
       <c r="R6">
-        <v>4483.873424216816</v>
+        <v>1.360011585893</v>
       </c>
       <c r="S6">
-        <v>0.1560217087033178</v>
+        <v>3.825608212756259E-06</v>
       </c>
       <c r="T6">
-        <v>0.1560217087033178</v>
+        <v>3.86439330793289E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.8131499828264</v>
+        <v>0.4105396666666667</v>
       </c>
       <c r="H7">
-        <v>71.8131499828264</v>
+        <v>1.231619</v>
       </c>
       <c r="I7">
-        <v>0.2814035258817397</v>
+        <v>0.001389151983434435</v>
       </c>
       <c r="J7">
-        <v>0.2814035258817397</v>
+        <v>0.001392441825693258</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.0023178766533</v>
+        <v>67.415553</v>
       </c>
       <c r="N7">
-        <v>3.0023178766533</v>
+        <v>202.246659</v>
       </c>
       <c r="O7">
-        <v>0.02666016296954829</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P7">
-        <v>0.02666016296954829</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q7">
-        <v>215.6059039722243</v>
+        <v>27.676758656769</v>
       </c>
       <c r="R7">
-        <v>215.6059039722243</v>
+        <v>249.090827910921</v>
       </c>
       <c r="S7">
-        <v>0.007502263860212681</v>
+        <v>0.0007006733816554763</v>
       </c>
       <c r="T7">
-        <v>0.007502263860212681</v>
+        <v>0.0007077770060424754</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>181.761709386681</v>
+        <v>0.4105396666666667</v>
       </c>
       <c r="H8">
-        <v>181.761709386681</v>
+        <v>1.231619</v>
       </c>
       <c r="I8">
-        <v>0.7122426171799442</v>
+        <v>0.001389151983434435</v>
       </c>
       <c r="J8">
-        <v>0.7122426171799442</v>
+        <v>0.001392441825693258</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.174012646515</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N8">
-        <v>47.174012646515</v>
+        <v>188.369503</v>
       </c>
       <c r="O8">
-        <v>0.4188986365712714</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P8">
-        <v>0.4188986365712714</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q8">
-        <v>8574.429177259473</v>
+        <v>25.77771765726189</v>
       </c>
       <c r="R8">
-        <v>8574.429177259473</v>
+        <v>231.999458915357</v>
       </c>
       <c r="S8">
-        <v>0.2983574612446326</v>
+        <v>0.0006525966724017497</v>
       </c>
       <c r="T8">
-        <v>0.2983574612446326</v>
+        <v>0.0006592128815490054</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>181.761709386681</v>
+        <v>0.4105396666666667</v>
       </c>
       <c r="H9">
-        <v>181.761709386681</v>
+        <v>1.231619</v>
       </c>
       <c r="I9">
-        <v>0.7122426171799442</v>
+        <v>0.001389151983434435</v>
       </c>
       <c r="J9">
-        <v>0.7122426171799442</v>
+        <v>0.001392441825693258</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.4380552209324</v>
+        <v>3.084311</v>
       </c>
       <c r="N9">
-        <v>62.4380552209324</v>
+        <v>6.168622</v>
       </c>
       <c r="O9">
-        <v>0.5544412004591804</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P9">
-        <v>0.5544412004591804</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q9">
-        <v>11348.84764773665</v>
+        <v>1.266232009836333</v>
       </c>
       <c r="R9">
-        <v>11348.84764773665</v>
+        <v>7.597392059018</v>
       </c>
       <c r="S9">
-        <v>0.3948966516874368</v>
+        <v>3.205632116445271E-05</v>
       </c>
       <c r="T9">
-        <v>0.3948966516874368</v>
+        <v>2.158754479384377E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,247 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>181.761709386681</v>
+        <v>72.13387333333334</v>
       </c>
       <c r="H10">
-        <v>181.761709386681</v>
+        <v>216.40162</v>
       </c>
       <c r="I10">
-        <v>0.7122426171799442</v>
+        <v>0.244080953315453</v>
       </c>
       <c r="J10">
-        <v>0.7122426171799442</v>
+        <v>0.2446589950591689</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.0023178766533</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N10">
-        <v>3.0023178766533</v>
+        <v>1.104247</v>
       </c>
       <c r="O10">
-        <v>0.02666016296954829</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P10">
-        <v>0.02666016296954829</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q10">
-        <v>545.7064293826942</v>
+        <v>26.55120440890445</v>
       </c>
       <c r="R10">
-        <v>545.7064293826942</v>
+        <v>238.96083968014</v>
       </c>
       <c r="S10">
-        <v>0.01898850424787491</v>
+        <v>0.0006721785022200528</v>
       </c>
       <c r="T10">
-        <v>0.01898850424787491</v>
+        <v>0.0006789932374815882</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.30794933914735</v>
+        <v>72.13387333333334</v>
       </c>
       <c r="H11">
-        <v>1.30794933914735</v>
+        <v>216.40162</v>
       </c>
       <c r="I11">
-        <v>0.005125266832032504</v>
+        <v>0.244080953315453</v>
       </c>
       <c r="J11">
-        <v>0.005125266832032504</v>
+        <v>0.2446589950591689</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>47.174012646515</v>
+        <v>67.415553</v>
       </c>
       <c r="N11">
-        <v>47.174012646515</v>
+        <v>202.246659</v>
       </c>
       <c r="O11">
-        <v>0.4188986365712714</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P11">
-        <v>0.4188986365712714</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q11">
-        <v>61.70121866593803</v>
+        <v>4862.944960798621</v>
       </c>
       <c r="R11">
-        <v>61.70121866593803</v>
+        <v>43766.50464718758</v>
       </c>
       <c r="S11">
-        <v>0.002146967288002375</v>
+        <v>0.1231118185746756</v>
       </c>
       <c r="T11">
-        <v>0.002146967288002375</v>
+        <v>0.1243599609183858</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.30794933914735</v>
+        <v>72.13387333333334</v>
       </c>
       <c r="H12">
-        <v>1.30794933914735</v>
+        <v>216.40162</v>
       </c>
       <c r="I12">
-        <v>0.005125266832032504</v>
+        <v>0.244080953315453</v>
       </c>
       <c r="J12">
-        <v>0.005125266832032504</v>
+        <v>0.2446589950591689</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.4380552209324</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N12">
-        <v>62.4380552209324</v>
+        <v>188.369503</v>
       </c>
       <c r="O12">
-        <v>0.5544412004591804</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P12">
-        <v>0.5544412004591804</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q12">
-        <v>81.66581306386428</v>
+        <v>4529.273956421652</v>
       </c>
       <c r="R12">
-        <v>81.66581306386428</v>
+        <v>40763.46560779486</v>
       </c>
       <c r="S12">
-        <v>0.002841659095025722</v>
+        <v>0.114664500234527</v>
       </c>
       <c r="T12">
-        <v>0.002841659095025722</v>
+        <v>0.1158270012821115</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>72.13387333333334</v>
+      </c>
+      <c r="H13">
+        <v>216.40162</v>
+      </c>
+      <c r="I13">
+        <v>0.244080953315453</v>
+      </c>
+      <c r="J13">
+        <v>0.2446589950591689</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.084311</v>
+      </c>
+      <c r="N13">
+        <v>6.168622</v>
+      </c>
+      <c r="O13">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P13">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q13">
+        <v>222.4832989946067</v>
+      </c>
+      <c r="R13">
+        <v>1334.89979396764</v>
+      </c>
+      <c r="S13">
+        <v>0.005632456004030348</v>
+      </c>
+      <c r="T13">
+        <v>0.003793039621189961</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>220.0258686666667</v>
+      </c>
+      <c r="H14">
+        <v>660.0776060000001</v>
+      </c>
+      <c r="I14">
+        <v>0.744506308846773</v>
+      </c>
+      <c r="J14">
+        <v>0.7462694768413566</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3680823333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.104247</v>
+      </c>
+      <c r="O14">
+        <v>0.002753916244137746</v>
+      </c>
+      <c r="P14">
+        <v>0.002775263739301222</v>
+      </c>
+      <c r="Q14">
+        <v>80.98763513252024</v>
+      </c>
+      <c r="R14">
+        <v>728.8887161926821</v>
+      </c>
+      <c r="S14">
+        <v>0.002050308017796161</v>
+      </c>
+      <c r="T14">
+        <v>0.00207109461882511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>220.0258686666667</v>
+      </c>
+      <c r="H15">
+        <v>660.0776060000001</v>
+      </c>
+      <c r="I15">
+        <v>0.744506308846773</v>
+      </c>
+      <c r="J15">
+        <v>0.7462694768413566</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>67.415553</v>
+      </c>
+      <c r="N15">
+        <v>202.246659</v>
+      </c>
+      <c r="O15">
+        <v>0.5043892893009331</v>
+      </c>
+      <c r="P15">
+        <v>0.508299156907394</v>
+      </c>
+      <c r="Q15">
+        <v>14833.16561046871</v>
+      </c>
+      <c r="R15">
+        <v>133498.4904942184</v>
+      </c>
+      <c r="S15">
+        <v>0.3755210079992848</v>
+      </c>
+      <c r="T15">
+        <v>0.3793281459041836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>220.0258686666667</v>
+      </c>
+      <c r="H16">
+        <v>660.0776060000001</v>
+      </c>
+      <c r="I16">
+        <v>0.744506308846773</v>
+      </c>
+      <c r="J16">
+        <v>0.7462694768413566</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>62.78983433333334</v>
+      </c>
+      <c r="N16">
+        <v>188.369503</v>
+      </c>
+      <c r="O16">
+        <v>0.4697806144928208</v>
+      </c>
+      <c r="P16">
+        <v>0.473422206504607</v>
+      </c>
+      <c r="Q16">
+        <v>13815.38784262776</v>
+      </c>
+      <c r="R16">
+        <v>124338.4905836498</v>
+      </c>
+      <c r="S16">
+        <v>0.3497546312638188</v>
+      </c>
+      <c r="T16">
+        <v>0.3533005423732738</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>220.0258686666667</v>
+      </c>
+      <c r="H17">
+        <v>660.0776060000001</v>
+      </c>
+      <c r="I17">
+        <v>0.744506308846773</v>
+      </c>
+      <c r="J17">
+        <v>0.7462694768413566</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.084311</v>
+      </c>
+      <c r="N17">
+        <v>6.168622</v>
+      </c>
+      <c r="O17">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P17">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q17">
+        <v>678.6282070131555</v>
+      </c>
+      <c r="R17">
+        <v>4071.769242078933</v>
+      </c>
+      <c r="S17">
+        <v>0.01718036156587312</v>
+      </c>
+      <c r="T17">
+        <v>0.01156969394507405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.0947135</v>
+      </c>
+      <c r="H18">
+        <v>4.189427</v>
+      </c>
+      <c r="I18">
+        <v>0.007087927548824485</v>
+      </c>
+      <c r="J18">
+        <v>0.004736475631253356</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.3680823333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.104247</v>
+      </c>
+      <c r="O18">
+        <v>0.002753916244137746</v>
+      </c>
+      <c r="P18">
+        <v>0.002775263739301222</v>
+      </c>
+      <c r="Q18">
+        <v>0.7710270327448334</v>
+      </c>
+      <c r="R18">
+        <v>4.626162196469</v>
+      </c>
+      <c r="S18">
+        <v>1.951955881397918E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.31449690715013E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.0947135</v>
+      </c>
+      <c r="H19">
+        <v>4.189427</v>
+      </c>
+      <c r="I19">
+        <v>0.007087927548824485</v>
+      </c>
+      <c r="J19">
+        <v>0.004736475631253356</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>67.415553</v>
+      </c>
+      <c r="N19">
+        <v>202.246659</v>
+      </c>
+      <c r="O19">
+        <v>0.5043892893009331</v>
+      </c>
+      <c r="P19">
+        <v>0.508299156907394</v>
+      </c>
+      <c r="Q19">
+        <v>141.2162689790655</v>
+      </c>
+      <c r="R19">
+        <v>847.2976138743931</v>
+      </c>
+      <c r="S19">
+        <v>0.003575074738968087</v>
+      </c>
+      <c r="T19">
+        <v>0.002407546570078497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.30794933914735</v>
-      </c>
-      <c r="H13">
-        <v>1.30794933914735</v>
-      </c>
-      <c r="I13">
-        <v>0.005125266832032504</v>
-      </c>
-      <c r="J13">
-        <v>0.005125266832032504</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.0023178766533</v>
-      </c>
-      <c r="N13">
-        <v>3.0023178766533</v>
-      </c>
-      <c r="O13">
-        <v>0.02666016296954829</v>
-      </c>
-      <c r="P13">
-        <v>0.02666016296954829</v>
-      </c>
-      <c r="Q13">
-        <v>3.926879682678959</v>
-      </c>
-      <c r="R13">
-        <v>3.926879682678959</v>
-      </c>
-      <c r="S13">
-        <v>0.000136640449004407</v>
-      </c>
-      <c r="T13">
-        <v>0.000136640449004407</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.0947135</v>
+      </c>
+      <c r="H20">
+        <v>4.189427</v>
+      </c>
+      <c r="I20">
+        <v>0.007087927548824485</v>
+      </c>
+      <c r="J20">
+        <v>0.004736475631253356</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>62.78983433333334</v>
+      </c>
+      <c r="N20">
+        <v>188.369503</v>
+      </c>
+      <c r="O20">
+        <v>0.4697806144928208</v>
+      </c>
+      <c r="P20">
+        <v>0.473422206504607</v>
+      </c>
+      <c r="Q20">
+        <v>131.5267136407969</v>
+      </c>
+      <c r="R20">
+        <v>789.160281844781</v>
+      </c>
+      <c r="S20">
+        <v>0.00332977095936736</v>
+      </c>
+      <c r="T20">
+        <v>0.002242352744403265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.0947135</v>
+      </c>
+      <c r="H21">
+        <v>4.189427</v>
+      </c>
+      <c r="I21">
+        <v>0.007087927548824485</v>
+      </c>
+      <c r="J21">
+        <v>0.004736475631253356</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.084311</v>
+      </c>
+      <c r="N21">
+        <v>6.168622</v>
+      </c>
+      <c r="O21">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P21">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q21">
+        <v>6.4607478898985</v>
+      </c>
+      <c r="R21">
+        <v>25.842991559594</v>
+      </c>
+      <c r="S21">
+        <v>0.000163562291675059</v>
+      </c>
+      <c r="T21">
+        <v>7.343134770009113E-05</v>
       </c>
     </row>
   </sheetData>
